--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -543,10 +543,10 @@
         <v>0.575142</v>
       </c>
       <c r="I2">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J2">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>0.517887380756</v>
+        <v>0.14262754744</v>
       </c>
       <c r="R2">
-        <v>4.660986426804</v>
+        <v>1.28364792696</v>
       </c>
       <c r="S2">
-        <v>0.002080969305675415</v>
+        <v>0.0005044265879663761</v>
       </c>
       <c r="T2">
-        <v>0.002080969305675415</v>
+        <v>0.0005044265879663762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.575142</v>
       </c>
       <c r="I3">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J3">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
         <v>16.89954794539467</v>
@@ -635,10 +635,10 @@
         <v>152.095931508552</v>
       </c>
       <c r="S3">
-        <v>0.06790557534500978</v>
+        <v>0.05976812657355481</v>
       </c>
       <c r="T3">
-        <v>0.06790557534500978</v>
+        <v>0.05976812657355481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.575142</v>
       </c>
       <c r="I4">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J4">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>5.853377786812668</v>
+        <v>5.707057252590666</v>
       </c>
       <c r="R4">
-        <v>52.680400081314</v>
+        <v>51.363515273316</v>
       </c>
       <c r="S4">
-        <v>0.02351997743427992</v>
+        <v>0.02018397896426081</v>
       </c>
       <c r="T4">
-        <v>0.02351997743427992</v>
+        <v>0.02018397896426081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.575142</v>
       </c>
       <c r="I5">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J5">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.04613213982000001</v>
+        <v>0.03834899875266668</v>
       </c>
       <c r="R5">
-        <v>0.41518925838</v>
+        <v>0.3451409887740001</v>
       </c>
       <c r="S5">
-        <v>0.0001853676504540594</v>
+        <v>0.0001356277587320369</v>
       </c>
       <c r="T5">
-        <v>0.0001853676504540594</v>
+        <v>0.0001356277587320369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H6">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I6">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J6">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>5.009670897964667</v>
+        <v>1.62711714788</v>
       </c>
       <c r="R6">
-        <v>45.087038081682</v>
+        <v>14.64405433092</v>
       </c>
       <c r="S6">
-        <v>0.02012980380982006</v>
+        <v>0.005754576628837878</v>
       </c>
       <c r="T6">
-        <v>0.02012980380982006</v>
+        <v>0.005754576628837879</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H7">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I7">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J7">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
-        <v>163.4741001165463</v>
+        <v>192.7926599518893</v>
       </c>
       <c r="R7">
-        <v>1471.266901048916</v>
+        <v>1735.133939567004</v>
       </c>
       <c r="S7">
-        <v>0.6568698084878007</v>
+        <v>0.6818440433844238</v>
       </c>
       <c r="T7">
-        <v>0.6568698084878007</v>
+        <v>0.6818440433844238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H8">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I8">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J8">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>56.6213764671819</v>
+        <v>65.10699290773132</v>
       </c>
       <c r="R8">
-        <v>509.592388204637</v>
+        <v>585.9629361695819</v>
       </c>
       <c r="S8">
-        <v>0.2275153843318139</v>
+        <v>0.2302619576278817</v>
       </c>
       <c r="T8">
-        <v>0.2275153843318139</v>
+        <v>0.2302619576278817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H9">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I9">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J9">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>0.4462492173100001</v>
+        <v>0.4374913163303334</v>
       </c>
       <c r="R9">
-        <v>4.01624295579</v>
+        <v>3.937421846973</v>
       </c>
       <c r="S9">
-        <v>0.001793113635146302</v>
+        <v>0.001547262474342583</v>
       </c>
       <c r="T9">
-        <v>0.001793113635146302</v>
+        <v>0.001547262474342584</v>
       </c>
     </row>
   </sheetData>
